--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N2">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O2">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P2">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q2">
-        <v>0.1055903069172222</v>
+        <v>0.0862857442361111</v>
       </c>
       <c r="R2">
-        <v>0.9503127622550001</v>
+        <v>0.776571698125</v>
       </c>
       <c r="S2">
-        <v>0.007021862315852335</v>
+        <v>0.005452383613742062</v>
       </c>
       <c r="T2">
-        <v>0.007021862315852335</v>
+        <v>0.005452383613742063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N3">
         <v>11.845762</v>
       </c>
       <c r="O3">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P3">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q3">
-        <v>0.2221698987015555</v>
+        <v>0.2221698987015556</v>
       </c>
       <c r="R3">
         <v>1.999529088314</v>
       </c>
       <c r="S3">
-        <v>0.01477452320156798</v>
+        <v>0.01403888354758069</v>
       </c>
       <c r="T3">
-        <v>0.01477452320156798</v>
+        <v>0.01403888354758069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N4">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O4">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P4">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q4">
-        <v>3.761060445809556</v>
+        <v>3.977701998943223</v>
       </c>
       <c r="R4">
-        <v>33.849544012286</v>
+        <v>35.799317990489</v>
       </c>
       <c r="S4">
-        <v>0.2501143275658513</v>
+        <v>0.2513504100983408</v>
       </c>
       <c r="T4">
-        <v>0.2501143275658513</v>
+        <v>0.2513504100983408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N5">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O5">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P5">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q5">
-        <v>0.01431636751322222</v>
+        <v>0.03198438701366667</v>
       </c>
       <c r="R5">
-        <v>0.128847307619</v>
+        <v>0.287859483123</v>
       </c>
       <c r="S5">
-        <v>0.0009520529343644824</v>
+        <v>0.002021088757972569</v>
       </c>
       <c r="T5">
-        <v>0.0009520529343644824</v>
+        <v>0.00202108875797257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N6">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O6">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P6">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q6">
-        <v>0.2813819006077778</v>
+        <v>0.2299382151388889</v>
       </c>
       <c r="R6">
-        <v>2.532437105470001</v>
+        <v>2.06944393625</v>
       </c>
       <c r="S6">
-        <v>0.01871218127805628</v>
+        <v>0.01452976233206886</v>
       </c>
       <c r="T6">
-        <v>0.01871218127805628</v>
+        <v>0.01452976233206886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N7">
         <v>11.845762</v>
       </c>
       <c r="O7">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P7">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q7">
-        <v>0.5920485523684444</v>
+        <v>0.5920485523684446</v>
       </c>
       <c r="R7">
-        <v>5.328436971316</v>
+        <v>5.328436971316001</v>
       </c>
       <c r="S7">
-        <v>0.03937182815738968</v>
+        <v>0.03741146181274342</v>
       </c>
       <c r="T7">
-        <v>0.03937182815738968</v>
+        <v>0.03741146181274343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N8">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O8">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P8">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q8">
-        <v>10.02264665612045</v>
+        <v>10.59996301925178</v>
       </c>
       <c r="R8">
-        <v>90.20381990508402</v>
+        <v>95.39966717326601</v>
       </c>
       <c r="S8">
-        <v>0.6665161501508684</v>
+        <v>0.6698101196680952</v>
       </c>
       <c r="T8">
-        <v>0.6665161501508684</v>
+        <v>0.6698101196680953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N9">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O9">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P9">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q9">
-        <v>0.03815091383177778</v>
+        <v>0.08523346385133333</v>
       </c>
       <c r="R9">
-        <v>0.343358224486</v>
+        <v>0.7671011746620001</v>
       </c>
       <c r="S9">
-        <v>0.002537074396049472</v>
+        <v>0.005385890169456242</v>
       </c>
       <c r="T9">
-        <v>0.002537074396049472</v>
+        <v>0.005385890169456242</v>
       </c>
     </row>
   </sheetData>
